--- a/Team-Data/2011-12/4-11-2011-12.xlsx
+++ b/Team-Data/2011-12/4-11-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.586</v>
+        <v>0.596</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J2" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L2" t="n">
         <v>7.2</v>
@@ -696,25 +763,25 @@
         <v>19.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.366</v>
+        <v>0.371</v>
       </c>
       <c r="O2" t="n">
         <v>15.3</v>
       </c>
       <c r="P2" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q2" t="n">
         <v>0.736</v>
       </c>
       <c r="R2" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S2" t="n">
         <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
         <v>22.1</v>
@@ -723,7 +790,7 @@
         <v>13.9</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -735,31 +802,31 @@
         <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
         <v>18</v>
@@ -768,13 +835,13 @@
         <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>26</v>
@@ -789,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
         <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.586</v>
+        <v>0.579</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,10 +933,10 @@
         <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -878,31 +945,31 @@
         <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="U3" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W3" t="n">
         <v>7.3</v>
@@ -914,34 +981,34 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA3" t="n">
         <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>2.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -950,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
         <v>24</v>
@@ -959,10 +1026,10 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,19 +1047,19 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>19</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1150,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1311,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1356,7 +1423,7 @@
         <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K6" t="n">
         <v>0.423</v>
@@ -1421,19 +1488,19 @@
         <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.711</v>
+        <v>0.71</v>
       </c>
       <c r="R6" t="n">
         <v>13</v>
@@ -1445,7 +1512,7 @@
         <v>42.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
         <v>15.3</v>
@@ -1463,34 +1530,34 @@
         <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC6" t="n">
         <v>-6</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>25</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1523,13 +1590,13 @@
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
@@ -1687,13 +1754,13 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
@@ -1702,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.552</v>
+        <v>0.544</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1779,16 +1846,16 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O8" t="n">
         <v>20.2</v>
@@ -1797,25 +1864,25 @@
         <v>27.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R8" t="n">
         <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T8" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>5.1</v>
@@ -1824,28 +1891,28 @@
         <v>6.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
         <v>22.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="AC8" t="n">
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1854,10 +1921,10 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1884,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1893,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2060,7 +2127,7 @@
         <v>17</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2084,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.386</v>
+        <v>0.393</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J10" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
         <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O10" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="P10" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R10" t="n">
         <v>9.699999999999999</v>
@@ -2170,7 +2237,7 @@
         <v>29.3</v>
       </c>
       <c r="T10" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U10" t="n">
         <v>22.3</v>
@@ -2194,13 +2261,13 @@
         <v>16.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2212,16 +2279,16 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2257,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="AW10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.552</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M11" t="n">
         <v>19.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O11" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P11" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S11" t="n">
         <v>30.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U11" t="n">
         <v>21.2</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
         <v>4.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
         <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
@@ -2403,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2412,13 +2479,13 @@
         <v>17</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2433,16 +2500,16 @@
         <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY11" t="n">
         <v>20</v>
@@ -2451,7 +2518,7 @@
         <v>22</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2510,19 +2577,19 @@
         <v>0.44</v>
       </c>
       <c r="L12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
         <v>15.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P12" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
         <v>0.779</v>
@@ -2531,40 +2598,40 @@
         <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T12" t="n">
         <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V12" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W12" t="n">
         <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
         <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC12" t="n">
         <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2594,16 +2661,16 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>10</v>
@@ -2612,7 +2679,7 @@
         <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2636,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.603</v>
+        <v>0.596</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
         <v>81.5</v>
@@ -2695,7 +2762,7 @@
         <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N13" t="n">
         <v>0.349</v>
@@ -2707,7 +2774,7 @@
         <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="R13" t="n">
         <v>12.2</v>
@@ -2716,7 +2783,7 @@
         <v>29.6</v>
       </c>
       <c r="T13" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
@@ -2725,13 +2792,13 @@
         <v>13.4</v>
       </c>
       <c r="W13" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X13" t="n">
         <v>4.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z13" t="n">
         <v>21.2</v>
@@ -2740,13 +2807,13 @@
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC13" t="n">
         <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,16 +2825,16 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
         <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2779,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -2809,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ13" t="n">
         <v>24</v>
@@ -2818,10 +2885,10 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -2850,55 +2917,55 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H14" t="n">
         <v>48.5</v>
       </c>
       <c r="I14" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K14" t="n">
         <v>0.457</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M14" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
-        <v>0.321</v>
+        <v>0.318</v>
       </c>
       <c r="O14" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R14" t="n">
         <v>11.9</v>
       </c>
       <c r="S14" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>46.2</v>
+        <v>45.9</v>
       </c>
       <c r="U14" t="n">
         <v>22</v>
@@ -2907,28 +2974,28 @@
         <v>15.1</v>
       </c>
       <c r="W14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X14" t="n">
         <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB14" t="n">
         <v>96.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2949,16 +3016,16 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
@@ -2967,10 +3034,10 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2982,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -2994,13 +3061,13 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="n">
         <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
         <v>82.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L15" t="n">
         <v>4.1</v>
@@ -3062,19 +3129,19 @@
         <v>12.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O15" t="n">
         <v>17.3</v>
       </c>
       <c r="P15" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S15" t="n">
         <v>29.8</v>
@@ -3095,7 +3162,7 @@
         <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z15" t="n">
         <v>19.9</v>
@@ -3104,28 +3171,28 @@
         <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
         <v>7</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
         <v>14</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
@@ -3155,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
@@ -3164,7 +3231,7 @@
         <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3173,19 +3240,19 @@
         <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -3292,22 +3359,22 @@
         <v>6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3322,19 +3389,19 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO16" t="n">
         <v>5</v>
       </c>
-      <c r="AO16" t="n">
-        <v>4</v>
-      </c>
       <c r="AP16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
         <v>10</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -3396,34 +3463,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483</v>
+        <v>0.491</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J17" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L17" t="n">
         <v>6.8</v>
       </c>
       <c r="M17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N17" t="n">
         <v>0.347</v>
@@ -3435,7 +3502,7 @@
         <v>20.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>12.5</v>
@@ -3468,13 +3535,13 @@
         <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3501,10 +3568,10 @@
         <v>14</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -3513,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
         <v>5</v>
@@ -3528,19 +3595,19 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW17" t="n">
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J18" t="n">
         <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
         <v>7.3</v>
@@ -3611,25 +3678,25 @@
         <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P18" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R18" t="n">
         <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T18" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U18" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
@@ -3638,25 +3705,25 @@
         <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3668,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
@@ -3680,7 +3747,7 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3689,19 +3756,19 @@
         <v>21</v>
       </c>
       <c r="AO18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP18" t="n">
         <v>5</v>
       </c>
-      <c r="AP18" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3710,16 +3777,16 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>9</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,7 +3944,7 @@
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>8</v>
@@ -3892,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
         <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>0.276</v>
+        <v>0.263</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J20" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P20" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R20" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U20" t="n">
         <v>20.8</v>
       </c>
       <c r="V20" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
@@ -4008,19 +4075,19 @@
         <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.5</v>
+        <v>-4.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,13 +4099,13 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -4050,13 +4117,13 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>12</v>
@@ -4065,7 +4132,7 @@
         <v>17</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4080,7 +4147,7 @@
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="n">
         <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.517</v>
+        <v>0.509</v>
       </c>
       <c r="H21" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
         <v>81</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
         <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R21" t="n">
         <v>11.7</v>
@@ -4175,7 +4242,7 @@
         <v>42.5</v>
       </c>
       <c r="U21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V21" t="n">
         <v>16.4</v>
@@ -4184,7 +4251,7 @@
         <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y21" t="n">
         <v>5</v>
@@ -4196,25 +4263,25 @@
         <v>22.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="AC21" t="n">
         <v>2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF21" t="n">
         <v>17</v>
       </c>
-      <c r="AF21" t="n">
-        <v>16</v>
-      </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4226,13 +4293,13 @@
         <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4241,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
         <v>14</v>
@@ -4265,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -4306,55 +4373,55 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
         <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.724</v>
+        <v>0.737</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P22" t="n">
         <v>26.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.802</v>
+        <v>0.801</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S22" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U22" t="n">
         <v>18.5</v>
@@ -4363,13 +4430,13 @@
         <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z22" t="n">
         <v>20.2</v>
@@ -4378,13 +4445,13 @@
         <v>19.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4408,10 +4475,10 @@
         <v>1</v>
       </c>
       <c r="AL22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN22" t="n">
         <v>11</v>
@@ -4420,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>1.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4611,10 +4678,10 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4626,7 +4693,7 @@
         <v>26</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>1</v>
@@ -4635,13 +4702,13 @@
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
         <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.534</v>
+        <v>0.526</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M24" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O24" t="n">
         <v>13.2</v>
@@ -4709,25 +4776,25 @@
         <v>17.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R24" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
         <v>43.1</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V24" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="W24" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
@@ -4736,7 +4803,7 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA24" t="n">
         <v>16.1</v>
@@ -4745,10 +4812,10 @@
         <v>93.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4763,7 +4830,7 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
@@ -4772,13 +4839,13 @@
         <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4787,19 +4854,19 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4808,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.517</v>
+        <v>0.526</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J25" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O25" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q25" t="n">
         <v>0.757</v>
@@ -4897,10 +4964,10 @@
         <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
         <v>22.7</v>
@@ -4909,49 +4976,49 @@
         <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA25" t="n">
         <v>19.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,34 +5027,34 @@
         <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
         <v>5</v>
@@ -4999,13 +5066,13 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
         <v>11</v>
       </c>
       <c r="BC25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
         <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.475</v>
+        <v>0.466</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.445</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O26" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
@@ -5100,22 +5167,22 @@
         <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
         <v>20</v>
@@ -5124,10 +5191,10 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
@@ -5142,13 +5209,13 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5166,10 +5233,10 @@
         <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
         <v>16</v>
@@ -5178,13 +5245,13 @@
         <v>8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>0.322</v>
+        <v>0.328</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,7 +5301,7 @@
         <v>37.2</v>
       </c>
       <c r="J27" t="n">
-        <v>86.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.432</v>
@@ -5246,7 +5313,7 @@
         <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O27" t="n">
         <v>17.6</v>
@@ -5261,19 +5328,19 @@
         <v>13.6</v>
       </c>
       <c r="S27" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
         <v>4.8</v>
@@ -5282,10 +5349,10 @@
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB27" t="n">
         <v>98.2</v>
@@ -5294,7 +5361,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5321,7 +5388,7 @@
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>28</v>
@@ -5339,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
         <v>5</v>
@@ -5348,19 +5415,19 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
         <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.714</v>
+        <v>0.727</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J28" t="n">
         <v>82.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="O28" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R28" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S28" t="n">
         <v>32.3</v>
       </c>
       <c r="T28" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V28" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W28" t="n">
         <v>7.3</v>
@@ -5467,16 +5534,16 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5497,7 +5564,7 @@
         <v>6</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
@@ -5518,13 +5585,13 @@
         <v>25</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,7 +5600,7 @@
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
@@ -5545,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J29" t="n">
         <v>78.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>5.6</v>
@@ -5610,76 +5677,76 @@
         <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O29" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P29" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T29" t="n">
         <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V29" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W29" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X29" t="n">
         <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5694,28 +5761,28 @@
         <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV29" t="n">
         <v>19</v>
       </c>
-      <c r="AU29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>18</v>
-      </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
         <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
       </c>
       <c r="I30" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J30" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L30" t="n">
         <v>3.9</v>
@@ -5792,25 +5859,25 @@
         <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.312</v>
+        <v>0.309</v>
       </c>
       <c r="O30" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P30" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q30" t="n">
         <v>0.75</v>
       </c>
       <c r="R30" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S30" t="n">
         <v>30.8</v>
       </c>
       <c r="T30" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U30" t="n">
         <v>21.7</v>
@@ -5819,7 +5886,7 @@
         <v>14.2</v>
       </c>
       <c r="W30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>5.8</v>
@@ -5834,22 +5901,22 @@
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5885,13 +5952,13 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
         <v>11</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
@@ -6046,7 +6113,7 @@
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>21</v>
@@ -6055,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6067,10 +6134,10 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6085,13 +6152,13 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-11-2011-12</t>
+          <t>2012-04-11</t>
         </is>
       </c>
     </row>
